--- a/LIFTOFF/YPS1009_S288C_V5/missing_verified_genes_v5.xlsx
+++ b/LIFTOFF/YPS1009_S288C_V5/missing_verified_genes_v5.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\yps1009_nanopore_genomeSeq\LIFTOFF\YPS1009_S288C_V5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D2B21D-B148-48A5-87EB-4052B4390801}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -508,8 +502,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,14 +566,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -626,7 +612,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,27 +644,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,24 +678,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -903,20 +853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="8" max="8" width="27.453125" customWidth="1"/>
-    <col min="14" max="14" width="29.2265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>3257</v>
       </c>
@@ -1007,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>9420</v>
       </c>
@@ -1054,7 +998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>9426</v>
       </c>
@@ -1101,7 +1045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>9434</v>
       </c>
@@ -1148,7 +1092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>9438</v>
       </c>
@@ -1195,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>17925</v>
       </c>
@@ -1242,7 +1186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>18000</v>
       </c>
@@ -1289,7 +1233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>18012</v>
       </c>
@@ -1336,7 +1280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>18038</v>
       </c>
@@ -1383,7 +1327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>18050</v>
       </c>
@@ -1430,7 +1374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>21695</v>
       </c>
@@ -1477,7 +1421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>21699</v>
       </c>
@@ -1524,7 +1468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>21702</v>
       </c>
@@ -1571,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>21706</v>
       </c>
@@ -1618,7 +1562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>21710</v>
       </c>
@@ -1665,7 +1609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>21717</v>
       </c>
@@ -1712,7 +1656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>21724</v>
       </c>
@@ -1759,7 +1703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>25309</v>
       </c>
@@ -1806,7 +1750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>25313</v>
       </c>
@@ -1853,7 +1797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>25343</v>
       </c>
@@ -1900,7 +1844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>28299</v>
       </c>
